--- a/examplePoj/excel/cfg_buildings.xlsx
+++ b/examplePoj/excel/cfg_buildings.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
   <si>
     <t>升级</t>
   </si>
@@ -45,6 +45,9 @@
     <t>秒</t>
   </si>
   <si>
+    <t>粮</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>seconds</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>i</t>
@@ -96,14 +102,135 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,131 +252,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,7 +280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +304,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +382,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,25 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,49 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +465,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -497,21 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,25 +565,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +583,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,115 +601,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,20 +1112,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1144,60 +1150,69 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1222,8 +1237,11 @@
       <c r="H4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2000</v>
@@ -1245,8 +1263,11 @@
       <c r="H5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1254,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2000</v>
@@ -1268,8 +1289,11 @@
       <c r="H6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1294,8 +1318,11 @@
       <c r="H7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1303,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2000</v>
@@ -1317,8 +1344,11 @@
       <c r="H8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1326,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2000</v>
@@ -1340,8 +1370,11 @@
       <c r="H9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1352,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1366,8 +1399,11 @@
       <c r="H10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>2</v>
       </c>
@@ -1375,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2000</v>
@@ -1389,8 +1425,11 @@
       <c r="H11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>3</v>
       </c>
@@ -1398,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2000</v>
@@ -1412,8 +1451,11 @@
       <c r="H12">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1424,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -1438,8 +1480,11 @@
       <c r="H13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>2</v>
       </c>
@@ -1447,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>2000</v>
@@ -1461,8 +1506,11 @@
       <c r="H14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1470,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2000</v>
@@ -1484,8 +1532,11 @@
       <c r="H15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1496,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1510,8 +1561,11 @@
       <c r="H16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>2</v>
       </c>
@@ -1519,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2000</v>
@@ -1533,8 +1587,11 @@
       <c r="H17">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1542,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2000</v>
@@ -1556,8 +1613,11 @@
       <c r="H18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1568,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -1582,8 +1642,11 @@
       <c r="H19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1591,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>2000</v>
@@ -1605,8 +1668,11 @@
       <c r="H20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>3</v>
       </c>
@@ -1614,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2000</v>
@@ -1628,8 +1694,11 @@
       <c r="H21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1640,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -1654,8 +1723,11 @@
       <c r="H22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23">
         <v>2</v>
       </c>
@@ -1663,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2000</v>
@@ -1677,8 +1749,11 @@
       <c r="H23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="I23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1686,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>2000</v>
@@ -1700,8 +1775,11 @@
       <c r="H24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1712,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -1726,8 +1804,11 @@
       <c r="H25">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="I25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26">
         <v>2</v>
       </c>
@@ -1735,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>2000</v>
@@ -1749,8 +1830,11 @@
       <c r="H26">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="I26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27">
         <v>3</v>
       </c>
@@ -1758,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>2000</v>
@@ -1772,8 +1856,11 @@
       <c r="H27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1784,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -1798,8 +1885,11 @@
       <c r="H28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="I28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29">
         <v>2</v>
       </c>
@@ -1807,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2000</v>
@@ -1821,8 +1911,11 @@
       <c r="H29">
         <v>2000</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30">
         <v>3</v>
       </c>
@@ -1830,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>2000</v>
@@ -1844,8 +1937,11 @@
       <c r="H30">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1856,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>1000</v>
@@ -1870,8 +1966,11 @@
       <c r="H31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="I31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32">
         <v>2</v>
       </c>
@@ -1879,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>2000</v>
@@ -1893,8 +1992,11 @@
       <c r="H32">
         <v>2000</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33">
         <v>3</v>
       </c>
@@ -1902,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>2000</v>
@@ -1916,8 +2018,11 @@
       <c r="H33">
         <v>2000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1928,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -1942,8 +2047,11 @@
       <c r="H34">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>2</v>
       </c>
@@ -1951,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>2000</v>
@@ -1965,8 +2073,11 @@
       <c r="H35">
         <v>2000</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1974,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>2000</v>
@@ -1988,8 +2099,11 @@
       <c r="H36">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>12</v>
       </c>
@@ -2000,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>1000</v>
@@ -2014,8 +2128,11 @@
       <c r="H37">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="I37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>2</v>
       </c>
@@ -2023,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>2000</v>
@@ -2037,8 +2154,11 @@
       <c r="H38">
         <v>2000</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="I38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39">
         <v>3</v>
       </c>
@@ -2046,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>2000</v>
@@ -2060,8 +2180,11 @@
       <c r="H39">
         <v>2000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>13</v>
       </c>
@@ -2072,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>1000</v>
@@ -2086,8 +2209,11 @@
       <c r="H40">
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="I40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41">
         <v>2</v>
       </c>
@@ -2095,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>2000</v>
@@ -2109,8 +2235,11 @@
       <c r="H41">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="I41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42">
         <v>3</v>
       </c>
@@ -2118,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>2000</v>
@@ -2132,8 +2261,11 @@
       <c r="H42">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2144,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>1000</v>
@@ -2158,8 +2290,11 @@
       <c r="H43">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="I43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44">
         <v>2</v>
       </c>
@@ -2167,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>2000</v>
@@ -2181,8 +2316,11 @@
       <c r="H44">
         <v>2000</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="I44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45">
         <v>3</v>
       </c>
@@ -2190,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>2000</v>
@@ -2204,8 +2342,11 @@
       <c r="H45">
         <v>2000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>15</v>
       </c>
@@ -2216,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>1000</v>
@@ -2230,8 +2371,11 @@
       <c r="H46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="I46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47">
         <v>2</v>
       </c>
@@ -2239,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>2000</v>
@@ -2253,8 +2397,11 @@
       <c r="H47">
         <v>2000</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="I47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48">
         <v>3</v>
       </c>
@@ -2262,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>2000</v>
@@ -2276,8 +2423,11 @@
       <c r="H48">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>16</v>
       </c>
@@ -2288,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -2302,8 +2452,11 @@
       <c r="H49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="I49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50">
         <v>2</v>
       </c>
@@ -2311,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>2000</v>
@@ -2325,8 +2478,11 @@
       <c r="H50">
         <v>2000</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="I50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51">
         <v>3</v>
       </c>
@@ -2334,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>2000</v>
@@ -2348,8 +2504,11 @@
       <c r="H51">
         <v>2000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>17</v>
       </c>
@@ -2360,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>1000</v>
@@ -2374,8 +2533,11 @@
       <c r="H52">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53">
         <v>2</v>
       </c>
@@ -2383,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>2000</v>
@@ -2397,8 +2559,11 @@
       <c r="H53">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54">
         <v>3</v>
       </c>
@@ -2406,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>2000</v>
@@ -2420,8 +2585,11 @@
       <c r="H54">
         <v>2000</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>18</v>
       </c>
@@ -2432,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>1000</v>
@@ -2446,8 +2614,11 @@
       <c r="H55">
         <v>1000</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="I55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56">
         <v>2</v>
       </c>
@@ -2455,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <v>2000</v>
@@ -2469,8 +2640,11 @@
       <c r="H56">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="I56">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57">
         <v>3</v>
       </c>
@@ -2478,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>2000</v>
@@ -2492,8 +2666,11 @@
       <c r="H57">
         <v>2000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>19</v>
       </c>
@@ -2504,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>1000</v>
@@ -2518,8 +2695,11 @@
       <c r="H58">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59">
         <v>2</v>
       </c>
@@ -2527,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E59">
         <v>2000</v>
@@ -2541,8 +2721,11 @@
       <c r="H59">
         <v>2000</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="I59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60">
         <v>3</v>
       </c>
@@ -2550,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E60">
         <v>2000</v>
@@ -2564,8 +2747,11 @@
       <c r="H60">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>20</v>
       </c>
@@ -2576,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <v>1000</v>
@@ -2590,8 +2776,11 @@
       <c r="H61">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="I61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62">
         <v>2</v>
       </c>
@@ -2599,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>2000</v>
@@ -2613,8 +2802,11 @@
       <c r="H62">
         <v>2000</v>
       </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="I62">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63">
         <v>3</v>
       </c>
@@ -2622,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E63">
         <v>2000</v>
@@ -2636,8 +2828,11 @@
       <c r="H63">
         <v>2000</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>21</v>
       </c>
@@ -2648,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>1000</v>
@@ -2662,8 +2857,11 @@
       <c r="H64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="I64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65">
         <v>2</v>
       </c>
@@ -2671,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>2000</v>
@@ -2685,8 +2883,11 @@
       <c r="H65">
         <v>2000</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66">
         <v>3</v>
       </c>
@@ -2694,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E66">
         <v>2000</v>
@@ -2708,8 +2909,11 @@
       <c r="H66">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>22</v>
       </c>
@@ -2720,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E67">
         <v>1000</v>
@@ -2734,8 +2938,11 @@
       <c r="H67">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68">
         <v>2</v>
       </c>
@@ -2743,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E68">
         <v>2000</v>
@@ -2757,8 +2964,11 @@
       <c r="H68">
         <v>2000</v>
       </c>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="I68">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69">
         <v>3</v>
       </c>
@@ -2766,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E69">
         <v>2000</v>
@@ -2780,8 +2990,11 @@
       <c r="H69">
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>23</v>
       </c>
@@ -2792,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E70">
         <v>1000</v>
@@ -2806,8 +3019,11 @@
       <c r="H70">
         <v>1000</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71">
         <v>2</v>
       </c>
@@ -2815,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E71">
         <v>2000</v>
@@ -2829,8 +3045,11 @@
       <c r="H71">
         <v>2000</v>
       </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="I71">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72">
         <v>3</v>
       </c>
@@ -2838,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E72">
         <v>2000</v>
@@ -2852,8 +3071,11 @@
       <c r="H72">
         <v>2000</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>24</v>
       </c>
@@ -2864,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E73">
         <v>1000</v>
@@ -2878,8 +3100,11 @@
       <c r="H73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="I73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74">
         <v>2</v>
       </c>
@@ -2887,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E74">
         <v>2000</v>
@@ -2901,8 +3126,11 @@
       <c r="H74">
         <v>2000</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="I74">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75">
         <v>3</v>
       </c>
@@ -2910,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E75">
         <v>2000</v>
@@ -2924,8 +3152,11 @@
       <c r="H75">
         <v>2000</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>25</v>
       </c>
@@ -2936,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E76">
         <v>1000</v>
@@ -2950,8 +3181,11 @@
       <c r="H76">
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77">
         <v>2</v>
       </c>
@@ -2959,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>2000</v>
@@ -2973,8 +3207,11 @@
       <c r="H77">
         <v>2000</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78">
         <v>3</v>
       </c>
@@ -2982,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E78">
         <v>2000</v>
@@ -2996,8 +3233,11 @@
       <c r="H78">
         <v>2000</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>26</v>
       </c>
@@ -3008,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E79">
         <v>1000</v>
@@ -3022,8 +3262,11 @@
       <c r="H79">
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="I79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80">
         <v>2</v>
       </c>
@@ -3031,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E80">
         <v>2000</v>
@@ -3045,8 +3288,11 @@
       <c r="H80">
         <v>2000</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="I80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81">
         <v>3</v>
       </c>
@@ -3054,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81">
         <v>2000</v>
@@ -3068,8 +3314,11 @@
       <c r="H81">
         <v>2000</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>27</v>
       </c>
@@ -3080,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -3094,8 +3343,11 @@
       <c r="H82">
         <v>1000</v>
       </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="I82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83">
         <v>2</v>
       </c>
@@ -3103,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E83">
         <v>2000</v>
@@ -3117,8 +3369,11 @@
       <c r="H83">
         <v>2000</v>
       </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="I83">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84">
         <v>3</v>
       </c>
@@ -3126,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E84">
         <v>2000</v>
@@ -3140,8 +3395,11 @@
       <c r="H84">
         <v>2000</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3152,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -3166,8 +3424,11 @@
       <c r="H85">
         <v>1000</v>
       </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="I85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86">
         <v>2</v>
       </c>
@@ -3175,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E86">
         <v>2000</v>
@@ -3189,8 +3450,11 @@
       <c r="H86">
         <v>2000</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="I86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87">
         <v>3</v>
       </c>
@@ -3198,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E87">
         <v>2000</v>
@@ -3212,8 +3476,11 @@
       <c r="H87">
         <v>2000</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>29</v>
       </c>
@@ -3224,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -3238,8 +3505,11 @@
       <c r="H88">
         <v>1000</v>
       </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="I88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89">
         <v>2</v>
       </c>
@@ -3247,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E89">
         <v>2000</v>
@@ -3261,8 +3531,11 @@
       <c r="H89">
         <v>2000</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="I89">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90">
         <v>3</v>
       </c>
@@ -3270,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E90">
         <v>2000</v>
@@ -3284,8 +3557,11 @@
       <c r="H90">
         <v>2000</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>30</v>
       </c>
@@ -3296,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -3310,8 +3586,11 @@
       <c r="H91">
         <v>1000</v>
       </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="I91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92">
         <v>2</v>
       </c>
@@ -3319,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E92">
         <v>2000</v>
@@ -3333,8 +3612,11 @@
       <c r="H92">
         <v>2000</v>
       </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="I92">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93">
         <v>3</v>
       </c>
@@ -3342,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E93">
         <v>2000</v>
@@ -3356,8 +3638,11 @@
       <c r="H93">
         <v>2000</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>31</v>
       </c>
@@ -3368,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -3382,8 +3667,11 @@
       <c r="H94">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="I94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95">
         <v>2</v>
       </c>
@@ -3391,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E95">
         <v>2000</v>
@@ -3405,8 +3693,11 @@
       <c r="H95">
         <v>2000</v>
       </c>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="I95">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96">
         <v>3</v>
       </c>
@@ -3414,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E96">
         <v>2000</v>
@@ -3426,6 +3717,9 @@
         <v>2000</v>
       </c>
       <c r="H96">
+        <v>2000</v>
+      </c>
+      <c r="I96">
         <v>2000</v>
       </c>
     </row>
@@ -3457,29 +3751,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3490,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
